--- a/python_work/20211118-py/student_scores.xlsx
+++ b/python_work/20211118-py/student_scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,100 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
